--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail7 Features.xlsx
@@ -1943,7 +1943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,29 +1954,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1997,115 +1995,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2122,72 +2110,66 @@
         <v>2.188797967476907e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.02657280277971</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.7964929306944546</v>
+        <v>2.618628817178883e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.0469436310039471</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.618628817178883e-06</v>
+        <v>0.2222254281622396</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0469436310039471</v>
+        <v>0.05158152766923079</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2222254281622396</v>
+        <v>1.405005644003141</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05158152766923079</v>
+        <v>1.296712332600604</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.327890555857803</v>
+        <v>3.456502543246713</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.296712332600604</v>
+        <v>6.649019267426429e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.456502543246713</v>
+        <v>3555296.261326823</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.649019267426429e-14</v>
+        <v>2.365311822171986e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3555296.261326823</v>
+        <v>0.8404447792489785</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.365311822171986e-05</v>
+        <v>0.0001909907990925009</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0.8404447792489785</v>
+        <v>11.52025900313173</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001909907990925009</v>
+        <v>1.08013759829581</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.52025900313173</v>
+        <v>0.02534760508133343</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.08013759829581</v>
+        <v>2.443132192081976</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02534760508133343</v>
+        <v>0.931298385465042</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.443132192081976</v>
+        <v>1.947594808842599</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.931298385465042</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.947594808842599</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1353248361744196</v>
       </c>
     </row>
@@ -2202,72 +2184,66 @@
         <v>2.326808513052286e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.02961853609918</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.599938508130748</v>
+        <v>2.629197620010517e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.04591474846462439</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.629197620010517e-06</v>
+        <v>0.2072587948165111</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04591474846462439</v>
+        <v>0.04506249674585898</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2072587948165111</v>
+        <v>1.379239265316792</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04506249674585898</v>
+        <v>1.298240666388792</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.300785234048158</v>
+        <v>3.402282249522972</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.298240666388792</v>
+        <v>6.862631419258913e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.402282249522972</v>
+        <v>3533891.459857321</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.862631419258913e-14</v>
+        <v>2.369141137238951e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3533891.459857321</v>
+        <v>0.8570320969829303</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.369141137238951e-05</v>
+        <v>0.000201319474057493</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0.8570320969829303</v>
+        <v>12.11941140700615</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000201319474057493</v>
+        <v>1.052349113416567</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.11941140700615</v>
+        <v>0.02956983109531386</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.052349113416567</v>
+        <v>2.241054558220853</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02956983109531386</v>
+        <v>0.9273730322097</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.241054558220853</v>
+        <v>1.937808008296874</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9273730322097</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.937808008296874</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1358656758108108</v>
       </c>
     </row>
@@ -2282,72 +2258,66 @@
         <v>2.439132118026435e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9834790785464284</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3170059016171973</v>
+        <v>2.639706323251571e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.04174070431902754</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.639706323251571e-06</v>
+        <v>0.1990519076533318</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04174070431902754</v>
+        <v>0.0413618782430196</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1990519076533318</v>
+        <v>1.372741549091096</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0413618782430196</v>
+        <v>1.292670962892651</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.297064794676324</v>
+        <v>3.393156990950483</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.292670962892651</v>
+        <v>6.899592569680296e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.393156990950483</v>
+        <v>3533390.265650478</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.899592569680296e-14</v>
+        <v>2.373619663117617e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3533390.265650478</v>
+        <v>0.8614035600370481</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.373619663117617e-05</v>
+        <v>0.0001999809010878858</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.8614035600370481</v>
+        <v>10.94614003717674</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001999809010878858</v>
+        <v>1.153329329268735</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.94614003717674</v>
+        <v>0.02396130794959426</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.153329329268735</v>
+        <v>2.444417080635837</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02396130794959426</v>
+        <v>0.9288792103670733</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.444417080635837</v>
+        <v>1.913943009640622</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9288792103670733</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.913943009640622</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1280472131505486</v>
       </c>
     </row>
@@ -2362,72 +2332,66 @@
         <v>2.527157523280901e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9162538681904433</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.03150715507442925</v>
+        <v>2.649311245555886e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.03537681566266234</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.649311245555886e-06</v>
+        <v>0.1943625947473422</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03537681566266234</v>
+        <v>0.03902451177801196</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1943625947473422</v>
+        <v>1.373813003352702</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03902451177801196</v>
+        <v>1.292696529881032</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.295193352695529</v>
+        <v>3.401158252098806</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.292696529881032</v>
+        <v>6.867168023579384e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.401158252098806</v>
+        <v>3598953.335079934</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.867168023579384e-14</v>
+        <v>2.352915106189065e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3598953.335079934</v>
+        <v>0.8894675421675515</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.352915106189065e-05</v>
+        <v>0.0002085220342889716</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.8894675421675515</v>
+        <v>9.346228723785817</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002085220342889716</v>
+        <v>1.491643263470326</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.346228723785817</v>
+        <v>0.01821481493702084</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.491643263470326</v>
+        <v>2.616016596198225</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01821481493702084</v>
+        <v>0.92742024893819</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.616016596198225</v>
+        <v>1.93276918229552</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.92742024893819</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.93276918229552</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1210214968699171</v>
       </c>
     </row>
@@ -2442,72 +2406,66 @@
         <v>2.593282289973377e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8439045306823605</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2180978144952257</v>
+        <v>2.657558919799352e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.02922557210952134</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.657558919799352e-06</v>
+        <v>0.1920033572564618</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02922557210952134</v>
+        <v>0.03771594353993551</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1920033572564618</v>
+        <v>1.374656106138863</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03771594353993551</v>
+        <v>1.299042967682025</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.294302399292858</v>
+        <v>3.422410164147196</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.299042967682025</v>
+        <v>6.782147628278685e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.422410164147196</v>
+        <v>3703273.645902349</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.782147628278685e-14</v>
+        <v>2.323480805951354e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3703273.645902349</v>
+        <v>0.9301197110223066</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.323480805951354e-05</v>
+        <v>0.0001982874476562449</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.9301197110223066</v>
+        <v>9.470137894007914</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001982874476562449</v>
+        <v>1.43021887459334</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.470137894007914</v>
+        <v>0.01778311463809292</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.43021887459334</v>
+        <v>2.656652454948137</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01778311463809292</v>
+        <v>0.927714396572462</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.656652454948137</v>
+        <v>1.959992054067218</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.927714396572462</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.959992054067218</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1249250721202923</v>
       </c>
     </row>
@@ -2522,72 +2480,66 @@
         <v>2.640540439617579e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7738321768780714</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.4181939998503559</v>
+        <v>2.664560995900616e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.02445294577587286</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.664560995900616e-06</v>
+        <v>0.1913322766048782</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02445294577587286</v>
+        <v>0.03720270072082799</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1913322766048782</v>
+        <v>1.387507907294808</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03720270072082799</v>
+        <v>1.290341509141271</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.307321146886981</v>
+        <v>3.452824603313889</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.290341509141271</v>
+        <v>6.663191848328893e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.452824603313889</v>
+        <v>3800224.013575717</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.663191848328893e-14</v>
+        <v>2.28294515295611e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3800224.013575717</v>
+        <v>0.9622783472952248</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.28294515295611e-05</v>
+        <v>0.0001901223500699003</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.9622783472952248</v>
+        <v>11.26564246295744</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001901223500699003</v>
+        <v>1.101126906515357</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.26564246295744</v>
+        <v>0.02412932104203508</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.101126906515357</v>
+        <v>2.474009960410185</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02412932104203508</v>
+        <v>0.9275371264113501</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.474009960410185</v>
+        <v>1.937603916719365</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9275371264113501</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.937603916719365</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1343134582513031</v>
       </c>
     </row>
@@ -2602,72 +2554,66 @@
         <v>2.672278609159541e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7091445916674097</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5690600831134578</v>
+        <v>2.670546329073159e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.02070067496353369</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.670546329073159e-06</v>
+        <v>0.1916524620981096</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02070067496353369</v>
+        <v>0.03715597332133984</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1916524620981096</v>
+        <v>1.393490439765211</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03715597332133984</v>
+        <v>1.282091580512915</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.310743102325314</v>
+        <v>3.504326250361904</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.282091580512915</v>
+        <v>6.468778628700804e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.504326250361904</v>
+        <v>3927029.420217081</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.468778628700804e-14</v>
+        <v>2.219503810586168e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3927029.420217081</v>
+        <v>0.9975865818425576</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.219503810586168e-05</v>
+        <v>0.0002007482240142427</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.9975865818425576</v>
+        <v>12.21367930302789</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002007482240142427</v>
+        <v>1.041544989705851</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.21367930302789</v>
+        <v>0.02994640796419819</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.041544989705851</v>
+        <v>2.249077627352612</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02994640796419819</v>
+        <v>0.9299839620533703</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.249077627352612</v>
+        <v>1.923007815774474</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9299839620533703</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.923007815774474</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1354859291729251</v>
       </c>
     </row>
@@ -2682,72 +2628,66 @@
         <v>2.691762905748425e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6515535265227347</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.676262313869588</v>
+        <v>2.675688393020897e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01771306670423842</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.675688393020897e-06</v>
+        <v>0.1924641954555263</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01771306670423842</v>
+        <v>0.03735323334716303</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1924641954555263</v>
+        <v>1.401500960141624</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03735323334716303</v>
+        <v>1.266506857255616</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.319108031206497</v>
+        <v>3.58446684092122</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.266506857255616</v>
+        <v>6.182757580730816e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.58446684092122</v>
+        <v>4087832.328956023</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.182757580730816e-14</v>
+        <v>2.130029681155871e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4087832.328956023</v>
+        <v>1.033161862678888</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.130029681155871e-05</v>
+        <v>0.0002014198150929252</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.033161862678888</v>
+        <v>11.41074175917223</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002014198150929252</v>
+        <v>1.109634551271153</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.41074175917223</v>
+        <v>0.02622587256211483</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.109634551271153</v>
+        <v>2.406299576263103</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02622587256211483</v>
+        <v>0.9297371510188517</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.406299576263103</v>
+        <v>1.936615269932192</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9297371510188517</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.936615269932192</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1283603971027417</v>
       </c>
     </row>
@@ -2762,72 +2702,66 @@
         <v>2.701904951303169e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6016370396683778</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7475035380803163</v>
+        <v>2.680148306580096e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01543340171844356</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.680148306580096e-06</v>
+        <v>0.1934693216917887</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01543340171844356</v>
+        <v>0.03766576819659731</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1934693216917887</v>
+        <v>1.414171648268773</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03766576819659731</v>
+        <v>1.246643562960631</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.333554530229689</v>
+        <v>3.748967701097963</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.246643562960631</v>
+        <v>5.652075511274023e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.748967701097963</v>
+        <v>4449277.622743946</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.652075511274023e-14</v>
+        <v>1.960631039875782e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4449277.622743946</v>
+        <v>1.118888901773105</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.960631039875782e-05</v>
+        <v>0.000210276145998798</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1.118888901773105</v>
+        <v>9.906518297393228</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000210276145998798</v>
+        <v>1.358527859085521</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.906518297393228</v>
+        <v>0.02063631272419291</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.358527859085521</v>
+        <v>2.524248557983568</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02063631272419291</v>
+        <v>0.9308198456043912</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.524248557983568</v>
+        <v>1.926703994271843</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9308198456043912</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.926703994271843</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1206408801842082</v>
       </c>
     </row>
@@ -2842,72 +2776,66 @@
         <v>2.704905028040908e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.5591052824156011</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7903197642330531</v>
+        <v>2.684091582159213e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01378810707743732</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.684091582159213e-06</v>
+        <v>0.1945142354845947</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01378810707743732</v>
+        <v>0.03802337418047383</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1945142354845947</v>
+        <v>1.425378942230837</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03802337418047383</v>
+        <v>1.227001031386166</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.348985774177733</v>
+        <v>4.098156689177424</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.227001031386166</v>
+        <v>4.729924783499858e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.098156689177424</v>
+        <v>5303832.408083859</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.729924783499858e-14</v>
+        <v>1.650632598329234e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>5303832.408083859</v>
+        <v>1.33055802859529</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.650632598329234e-05</v>
+        <v>0.000214926834319029</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.33055802859529</v>
+        <v>9.177013700179513</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000214926834319029</v>
+        <v>1.553953450510712</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.177013700179513</v>
+        <v>0.01810061796083214</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.553953450510712</v>
+        <v>2.575289496513522</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01810061796083214</v>
+        <v>0.932677087595697</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.575289496513522</v>
+        <v>1.912444628429649</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.932677087595697</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.912444628429649</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1195063002404966</v>
       </c>
     </row>
@@ -2922,72 +2850,66 @@
         <v>2.70236780968612e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.5233991367706285</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8112194290231844</v>
+        <v>2.687660156378455e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01264254912635549</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.687660156378455e-06</v>
+        <v>0.195549300245382</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01264254912635549</v>
+        <v>0.03839720766200169</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.195549300245382</v>
+        <v>1.429856566393521</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03839720766200169</v>
+        <v>1.233181323945546</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.355511123229736</v>
+        <v>4.455517016980377</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.233181323945546</v>
+        <v>3.52908178479822e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.455517016980377</v>
+        <v>7013605.736826764</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.52908178479822e-14</v>
+        <v>1.244941437804971e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7013605.736826764</v>
+        <v>1.73597881356937</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.244941437804971e-05</v>
+        <v>0.0001980196936554601</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.73597881356937</v>
+        <v>10.81463432520622</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001980196936554601</v>
+        <v>1.184226999305273</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.81463432520622</v>
+        <v>0.02315965378379294</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.184226999305273</v>
+        <v>2.50394846863275</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02315965378379294</v>
+        <v>0.9319708431287058</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.50394846863275</v>
+        <v>1.955857899050613</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9319708431287058</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.955857899050613</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1289583306799637</v>
       </c>
     </row>
@@ -3002,72 +2924,66 @@
         <v>2.695431013799659e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4939321670985719</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8154982660411423</v>
+        <v>2.690965956565764e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01186736010041257</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.690965956565764e-06</v>
+        <v>0.1966018739574959</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01186736010041257</v>
+        <v>0.03879137308842158</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1966018739574959</v>
+        <v>1.547206458585205</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03879137308842158</v>
+        <v>1.398384556336001</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.467497960620023</v>
+        <v>3.238903984279601</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.398384556336001</v>
+        <v>3.3593656994232e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.238903984279601</v>
+        <v>6187928.381686071</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.3593656994232e-14</v>
+        <v>1.653926333782054e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>6187928.381686071</v>
+        <v>1.286316500677257</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.653926333782054e-05</v>
+        <v>0.0002165060082096206</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1.286316500677257</v>
+        <v>13.58114682282899</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002165060082096206</v>
+        <v>0.9794942204702171</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.58114682282899</v>
+        <v>0.03993400256306957</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.9794942204702171</v>
+        <v>2.214311675727279</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03993400256306957</v>
+        <v>0.9445404138009921</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.214311675727279</v>
+        <v>1.853311032183005</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9445404138009921</v>
+        <v>7</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.853311032183005</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1303480845790923</v>
       </c>
     </row>
@@ -3082,72 +2998,66 @@
         <v>2.684883462338674e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4702026486259809</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8072777989035727</v>
+        <v>2.69409136739565e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01138905124574542</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.69409136739565e-06</v>
+        <v>0.1976948804504761</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01138905124574542</v>
+        <v>0.0392116607117976</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1976948804504761</v>
+        <v>1.608000309719354</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0392116607117976</v>
+        <v>1.3406610294065</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.528355989714437</v>
+        <v>3.292514078957395</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.3406610294065</v>
+        <v>3.409024805337982e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.292514078957395</v>
+        <v>5835834.026200177</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.409024805337982e-14</v>
+        <v>1.876803789088505e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>5835834.026200177</v>
+        <v>1.161010172800151</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.876803789088505e-05</v>
+        <v>0.0002427521682742038</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1.161010172800151</v>
+        <v>14.16947147572413</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002427521682742038</v>
+        <v>1.025071246765878</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>14.16947147572413</v>
+        <v>0.04873830487447075</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.025071246765878</v>
+        <v>2.254121235511529</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.04873830487447075</v>
+        <v>0.9445596727215115</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.254121235511529</v>
+        <v>1.836327459030514</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9445596727215115</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.836327459030514</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1250052110631634</v>
       </c>
     </row>
@@ -3162,72 +3072,66 @@
         <v>2.671183119427438e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4516330733547135</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7896491915581629</v>
+        <v>2.697121962867028e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01127953859774619</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.697121962867028e-06</v>
+        <v>0.1988006668268985</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01127953859774619</v>
+        <v>0.03964788937252615</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1988006668268985</v>
+        <v>1.66558930479356</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03964788937252615</v>
+        <v>1.268972733344355</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.590362605694039</v>
+        <v>3.828640094521386</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.268972733344355</v>
+        <v>2.488978794812001e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.828640094521386</v>
+        <v>7685788.165791001</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.488978794812001e-14</v>
+        <v>1.487006300115155e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>7685788.165791001</v>
+        <v>1.470273119676447</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.487006300115155e-05</v>
+        <v>0.0002594576986602148</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1.470273119676447</v>
+        <v>13.55988008060216</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002594576986602148</v>
+        <v>1.116367005124937</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.55988008060216</v>
+        <v>0.04770657729212203</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.116367005124937</v>
+        <v>2.263001193916179</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04770657729212203</v>
+        <v>0.9450270409670048</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.263001193916179</v>
+        <v>1.810703866936639</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9450270409670048</v>
+        <v>7</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.810703866936639</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1297650644149402</v>
       </c>
     </row>
@@ -3242,72 +3146,66 @@
         <v>2.654290597525916e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.4378788869651764</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7643720391110236</v>
+        <v>2.700157621013689e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01155958619571345</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.700157621013689e-06</v>
+        <v>0.1999676256769853</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01155958619571345</v>
+        <v>0.0401198806953917</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1999676256769853</v>
+        <v>1.707545343705998</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0401198806953917</v>
+        <v>1.313545382069325</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.642902314033675</v>
+        <v>4.178983248301952</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.313545382069325</v>
+        <v>1.309463444056582e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.178983248301952</v>
+        <v>14096623.77755296</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.309463444056582e-14</v>
+        <v>8.181618359404059e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>14096623.77755296</v>
+        <v>2.602097689148733</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.181618359404059e-06</v>
+        <v>0.0002459200073603102</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.602097689148733</v>
+        <v>13.24411836361337</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002459200073603102</v>
+        <v>1.087274129095205</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.24411836361337</v>
+        <v>0.04313600987978181</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.087274129095205</v>
+        <v>2.274825804400602</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.04313600987978181</v>
+        <v>0.946513910702838</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.274825804400602</v>
+        <v>1.773689412010147</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.946513910702838</v>
+        <v>7</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.773689412010147</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1477294310116939</v>
       </c>
     </row>
@@ -3322,72 +3220,66 @@
         <v>2.633865258508883e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4289025932843531</v>
+        <v>9.218954437554684e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7324121406349784</v>
+        <v>2.703299355367544e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.218954437554684e-07</v>
+        <v>0.01225638768927736</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.703299355367544e-06</v>
+        <v>0.2012743994522425</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01225638768927736</v>
+        <v>0.04066106230846585</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2012743994522425</v>
+        <v>1.772895796208512</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04066106230846585</v>
+        <v>1.381043632910688</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.721172366113912</v>
+        <v>4.460524544628056</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.381043632910688</v>
+        <v>6.43174216288655e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.460524544628056</v>
+        <v>28431950.04877874</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.43174216288655e-15</v>
+        <v>4.111836802942916e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>28431950.04877874</v>
+        <v>5.199264610683815</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.111836802942916e-06</v>
+        <v>0.0002433612603227697</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.199264610683815</v>
+        <v>13.71637374806748</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002433612603227697</v>
+        <v>1.032161771797741</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.71637374806748</v>
+        <v>0.0457857219605094</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.032161771797741</v>
+        <v>2.240898637085933</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0457857219605094</v>
+        <v>0.9523617085936452</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.240898637085933</v>
+        <v>1.72470864814547</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9523617085936452</v>
+        <v>7</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.72470864814547</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1750223421161569</v>
       </c>
     </row>
@@ -3764,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.561292240678257</v>
+        <v>1.519462086771988</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.674839198719388</v>
@@ -3853,7 +3745,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57206446933049</v>
+        <v>1.528302514284628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.502490255998949</v>
@@ -3942,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580376363822268</v>
+        <v>1.536682325237177</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.626196650619868</v>
@@ -4031,7 +3923,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579872963164723</v>
+        <v>1.538829974284397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.65766434641231</v>
@@ -4120,7 +4012,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.56924979118955</v>
+        <v>1.531514146038816</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.542438108417155</v>
@@ -4209,7 +4101,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578448362163348</v>
+        <v>1.531567557227922</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.393525325585152</v>
@@ -4298,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.599080931091541</v>
+        <v>1.551592769772053</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.828158454400592</v>
@@ -4387,7 +4279,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600174406619391</v>
+        <v>1.550152366014386</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.118297085733482</v>
@@ -4476,7 +4368,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.602064335669165</v>
+        <v>1.549599802242836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.159633762388351</v>
@@ -4565,7 +4457,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600290767446887</v>
+        <v>1.550823545528261</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.966531945993193</v>
@@ -4654,7 +4546,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599186271577552</v>
+        <v>1.545624971125099</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.151296167124643</v>
@@ -4743,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613985991150723</v>
+        <v>1.553156591217958</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.938244998025053</v>
@@ -4832,7 +4724,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.614087916395201</v>
+        <v>1.550744451979643</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.004266152568721</v>
@@ -4921,7 +4813,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635680216745647</v>
+        <v>1.568817691837256</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.814244638219014</v>
@@ -5010,7 +4902,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.628764083464025</v>
+        <v>1.561605885131167</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.196656092139992</v>
@@ -5099,7 +4991,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.618319046295224</v>
+        <v>1.546079337412359</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.88257283969214</v>
@@ -5188,7 +5080,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607008243308435</v>
+        <v>1.543610975781488</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.041357811128272</v>
@@ -5277,7 +5169,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.590836283041258</v>
+        <v>1.52741288393624</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.8436846213365</v>
@@ -5366,7 +5258,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593711128315382</v>
+        <v>1.520506383927117</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.727258925784897</v>
@@ -5455,7 +5347,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.608671947320422</v>
+        <v>1.527339019888546</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.792334833414696</v>
@@ -5544,7 +5436,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592093316368187</v>
+        <v>1.519214993431919</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.382683238684923</v>
@@ -5633,7 +5525,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594365365307043</v>
+        <v>1.516313849133431</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.535043269098974</v>
@@ -5722,7 +5614,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592954411978084</v>
+        <v>1.521763807598859</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.729079889079367</v>
@@ -5811,7 +5703,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583362383231296</v>
+        <v>1.509650400346241</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.753206842264021</v>
@@ -5900,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581244936650594</v>
+        <v>1.507777672869969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.67436070288099</v>
@@ -5989,7 +5881,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580310418756299</v>
+        <v>1.505409414066346</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.706234046677233</v>
@@ -6078,7 +5970,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.576155520070971</v>
+        <v>1.505121339200036</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.716010588626292</v>
@@ -6167,7 +6059,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567967532115717</v>
+        <v>1.500203051675364</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.673598510663174</v>
@@ -6256,7 +6148,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566897123730822</v>
+        <v>1.498740579456179</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.667485332186894</v>
@@ -6345,7 +6237,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.567450884493674</v>
+        <v>1.498316462449885</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.720811775048304</v>
@@ -6434,7 +6326,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.57829495474217</v>
+        <v>1.503811611958779</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.742582133332072</v>
@@ -6523,7 +6415,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570622265813344</v>
+        <v>1.490867348793815</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.84791957981041</v>
@@ -6612,7 +6504,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.570326831151848</v>
+        <v>1.496642711621679</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.58921702163264</v>
@@ -6701,7 +6593,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566567036241326</v>
+        <v>1.492243685846566</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.575070074961591</v>
@@ -6790,7 +6682,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.578016743032486</v>
+        <v>1.508096412103565</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.560147043917487</v>
@@ -6879,7 +6771,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.56641052843919</v>
+        <v>1.490937414597611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.10256835986764</v>
@@ -6968,7 +6860,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.548310455117195</v>
+        <v>1.482396291409005</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.230344843611555</v>
@@ -7057,7 +6949,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527879817253631</v>
+        <v>1.464996753589601</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.198504754767845</v>
@@ -7146,7 +7038,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.53219313987803</v>
+        <v>1.480177053335287</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.277349566056124</v>
@@ -7235,7 +7127,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.539334870271767</v>
+        <v>1.487756604116948</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.290671020660598</v>
@@ -7324,7 +7216,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538779803028668</v>
+        <v>1.490371397557062</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.324059338411003</v>
@@ -7413,7 +7305,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529909995216585</v>
+        <v>1.485591836408638</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.312566151940065</v>
@@ -7502,7 +7394,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534166546528379</v>
+        <v>1.48234824177865</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.410104413926543</v>
@@ -7591,7 +7483,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.54368744705577</v>
+        <v>1.490226978836189</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.406648044254181</v>
@@ -7680,7 +7572,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.537691491541739</v>
+        <v>1.483619678168583</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464692615010399</v>
@@ -7769,7 +7661,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537832016011083</v>
+        <v>1.479467264035616</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.545760596544066</v>
@@ -7858,7 +7750,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.545619791069636</v>
+        <v>1.493690468767682</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.469988574816457</v>
@@ -7947,7 +7839,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547892946271596</v>
+        <v>1.489921501330049</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.314978388119024</v>
@@ -8036,7 +7928,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536359423539475</v>
+        <v>1.482772723646495</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.559423666385161</v>
@@ -8125,7 +8017,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.520251480763137</v>
+        <v>1.465983950891878</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.529509772110853</v>
@@ -8214,7 +8106,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.533722467227785</v>
+        <v>1.478294086043851</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.867930015005561</v>
@@ -8303,7 +8195,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.550862530204186</v>
+        <v>1.48555098630083</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.82727069873887</v>
@@ -8392,7 +8284,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.56673383411978</v>
+        <v>1.494386437982133</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.3489881780904</v>
@@ -8481,7 +8373,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559419583883965</v>
+        <v>1.484222514882034</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.914211746163806</v>
@@ -8570,7 +8462,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.558902512116284</v>
+        <v>1.486696717662428</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.035748448780729</v>
@@ -8659,7 +8551,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.553196108231279</v>
+        <v>1.473344914642353</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.86987679210906</v>
@@ -8748,7 +8640,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545547870872013</v>
+        <v>1.467534686545972</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.110339302349293</v>
@@ -8837,7 +8729,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538440909603804</v>
+        <v>1.466603278454877</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.923373447155021</v>
@@ -8926,7 +8818,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.527197109837565</v>
+        <v>1.460393488724506</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.031795596775257</v>
@@ -9015,7 +8907,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.526404068603242</v>
+        <v>1.461019990390714</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.057503492786273</v>
@@ -9104,7 +8996,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.527008671903098</v>
+        <v>1.463258118034488</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.004212308031203</v>
@@ -9390,7 +9282,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.596921572184919</v>
+        <v>1.601431971791508</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.765657711160025</v>
@@ -9479,7 +9371,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.613130128342105</v>
+        <v>1.617275678487678</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.712274802383108</v>
@@ -9568,7 +9460,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620456236673598</v>
+        <v>1.620214298344119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.402542421433796</v>
@@ -9657,7 +9549,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.66064433117863</v>
+        <v>1.650359216265171</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.709958955615856</v>
@@ -9746,7 +9638,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.653182791014839</v>
+        <v>1.643226758842593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.936377867376741</v>
@@ -9835,7 +9727,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663295682474484</v>
+        <v>1.653444471534983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.669168012636127</v>
@@ -9924,7 +9816,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672350852302712</v>
+        <v>1.662786927872802</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.057266813634052</v>
@@ -10013,7 +9905,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677567123416802</v>
+        <v>1.657054547736396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.140153088051509</v>
@@ -10102,7 +9994,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.675292436659874</v>
+        <v>1.653123658030259</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.985220831022033</v>
@@ -10191,7 +10083,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.670011422693974</v>
+        <v>1.645131604527025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.756492860878663</v>
@@ -10280,7 +10172,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.660223838061287</v>
+        <v>1.637158425150523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.963380223121134</v>
@@ -10369,7 +10261,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662339378117187</v>
+        <v>1.640496984373549</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.02420759727603</v>
@@ -10458,7 +10350,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.657595798338126</v>
+        <v>1.633090444453444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.056980053785695</v>
@@ -10547,7 +10439,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.678388393584701</v>
+        <v>1.651033917282224</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.903315688975017</v>
@@ -10636,7 +10528,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668131683247738</v>
+        <v>1.644231262334122</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.043804469880381</v>
@@ -10725,7 +10617,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.665115050834511</v>
+        <v>1.644793363114701</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.961583623331258</v>
@@ -10814,7 +10706,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.661024426052532</v>
+        <v>1.642784806763688</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.025930133068183</v>
@@ -10903,7 +10795,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.646262367902889</v>
+        <v>1.635232867165494</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.009418486647044</v>
@@ -10992,7 +10884,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64927910355357</v>
+        <v>1.630401507935397</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.681556322504791</v>
@@ -11081,7 +10973,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663992272558602</v>
+        <v>1.643355481959495</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.649313409447838</v>
@@ -11170,7 +11062,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.65058129952542</v>
+        <v>1.633251534572636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.500217167144446</v>
@@ -11259,7 +11151,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.658934424262143</v>
+        <v>1.640369216210662</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.839090243745262</v>
@@ -11348,7 +11240,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.660423629522418</v>
+        <v>1.650369665392903</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.812304329795839</v>
@@ -11437,7 +11329,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658118006885059</v>
+        <v>1.645945614681048</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.978756267381096</v>
@@ -11526,7 +11418,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.652978080086488</v>
+        <v>1.645016462344923</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.841475457707568</v>
@@ -11615,7 +11507,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.682264525507982</v>
+        <v>1.666972101052657</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.076762167226429</v>
@@ -11704,7 +11596,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684047761940752</v>
+        <v>1.665028769604346</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.109090781963561</v>
@@ -11793,7 +11685,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674296693295301</v>
+        <v>1.657154556109514</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.10612332187624</v>
@@ -11882,7 +11774,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.660946335347801</v>
+        <v>1.644300477344323</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.125196147873991</v>
@@ -11971,7 +11863,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.656459455219466</v>
+        <v>1.635639536692792</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.083228604039998</v>
@@ -12060,7 +11952,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644313133121295</v>
+        <v>1.621772212874139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.025979727876728</v>
@@ -12149,7 +12041,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625505752653571</v>
+        <v>1.601597260035558</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.823752099626142</v>
@@ -12238,7 +12130,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618549836676889</v>
+        <v>1.599846977240535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.769606266552699</v>
@@ -12327,7 +12219,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608312276116935</v>
+        <v>1.59406406301018</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.911156130658894</v>
@@ -12416,7 +12308,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611818821109838</v>
+        <v>1.59574708281724</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.779922420346639</v>
@@ -12505,7 +12397,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603547618459207</v>
+        <v>1.583162178145773</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.356538234915795</v>
@@ -12594,7 +12486,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583558625997087</v>
+        <v>1.562450312884493</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.482723288826624</v>
@@ -12683,7 +12575,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.561422333725049</v>
+        <v>1.529502526000105</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.510127639094282</v>
@@ -12772,7 +12664,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561882120443165</v>
+        <v>1.537844343143039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.461623647100472</v>
@@ -12861,7 +12753,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.570105457840792</v>
+        <v>1.546757839403823</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.592374325970911</v>
@@ -12950,7 +12842,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.562057168866291</v>
+        <v>1.540893443829963</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.578453811791357</v>
@@ -13039,7 +12931,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.55866045567421</v>
+        <v>1.537090288160158</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.579739310199381</v>
@@ -13128,7 +13020,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.562473612658732</v>
+        <v>1.534645643535361</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.644475115900123</v>
@@ -13217,7 +13109,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.571450509854256</v>
+        <v>1.537264867972727</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.553886615171042</v>
@@ -13306,7 +13198,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.574939656787471</v>
+        <v>1.541922072747997</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.693977494776289</v>
@@ -13395,7 +13287,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.583285448389387</v>
+        <v>1.546640445256118</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.673724297472268</v>
@@ -13484,7 +13376,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594776702255398</v>
+        <v>1.560002052088664</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.78223009714144</v>
@@ -13573,7 +13465,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592127888237306</v>
+        <v>1.54761143792458</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.557279803048027</v>
@@ -13662,7 +13554,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.581481758728381</v>
+        <v>1.539548963991664</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.786152506957206</v>
@@ -13751,7 +13643,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559711339592268</v>
+        <v>1.518148530856189</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.826956434627198</v>
@@ -13840,7 +13732,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568999551345051</v>
+        <v>1.526497469920605</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.866209187785172</v>
@@ -13929,7 +13821,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.58513483252946</v>
+        <v>1.53161609133348</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.892244493566358</v>
@@ -14018,7 +13910,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.597405618323943</v>
+        <v>1.541390633152569</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.402380147795648</v>
@@ -14107,7 +13999,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.587850986660751</v>
+        <v>1.522923712479855</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.916690689666006</v>
@@ -14196,7 +14088,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.586521511369913</v>
+        <v>1.522195689306127</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.062696288191467</v>
@@ -14285,7 +14177,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.586343227169785</v>
+        <v>1.509248591339551</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.842616175654689</v>
@@ -14374,7 +14266,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.549624635091618</v>
+        <v>1.477775641806433</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.637128127007053</v>
@@ -14463,7 +14355,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538356815962229</v>
+        <v>1.476188305794142</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.625347421445989</v>
@@ -14552,7 +14444,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.530768766865375</v>
+        <v>1.4747021014673</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.668467976724917</v>
@@ -14641,7 +14533,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.523446954248544</v>
+        <v>1.468277872149776</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.641483118510543</v>
@@ -14730,7 +14622,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.522639089278889</v>
+        <v>1.466735781602294</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.56250192023329</v>
@@ -15016,7 +14908,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551749205130786</v>
+        <v>1.52703020364248</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.565739645044835</v>
@@ -15105,7 +14997,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57433649088239</v>
+        <v>1.548602772833766</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.559741382900943</v>
@@ -15194,7 +15086,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.566436459966759</v>
+        <v>1.52970803940978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.336287270248063</v>
@@ -15283,7 +15175,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.562573097242546</v>
+        <v>1.521289919728934</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.605027073581535</v>
@@ -15372,7 +15264,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554056529763545</v>
+        <v>1.51401076343685</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.521538988926072</v>
@@ -15461,7 +15353,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.551279581340551</v>
+        <v>1.509662414895053</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.360378549077571</v>
@@ -15550,7 +15442,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574614461287036</v>
+        <v>1.529288602916021</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.621203094788739</v>
@@ -15639,7 +15531,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595193164236824</v>
+        <v>1.547311238998306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.870394953155558</v>
@@ -15728,7 +15620,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.607347946670451</v>
+        <v>1.563291147047967</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.946685483155303</v>
@@ -15817,7 +15709,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610649602107373</v>
+        <v>1.567362111450581</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.602669746660379</v>
@@ -15906,7 +15798,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624348539997003</v>
+        <v>1.581182617196019</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.258353416315286</v>
@@ -15995,7 +15887,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.63601920815382</v>
+        <v>1.590976286422595</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.262042276236702</v>
@@ -16084,7 +15976,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.633117053745195</v>
+        <v>1.592281218716278</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.208530266009788</v>
@@ -16173,7 +16065,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.648081802252171</v>
+        <v>1.607170573400907</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.289947198484283</v>
@@ -16262,7 +16154,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640241682809329</v>
+        <v>1.602047826112155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.420113437485896</v>
@@ -16351,7 +16243,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637998502606761</v>
+        <v>1.600737212922961</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.431455419631051</v>
@@ -16440,7 +16332,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636583400097427</v>
+        <v>1.600892559363655</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.973124825681935</v>
@@ -16529,7 +16421,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.62265330017966</v>
+        <v>1.592606269592486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.458153541902602</v>
@@ -16618,7 +16510,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626305015956228</v>
+        <v>1.589959391550528</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.833660023047735</v>
@@ -16707,7 +16599,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.646241087018601</v>
+        <v>1.604035457732558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.880825664044095</v>
@@ -16796,7 +16688,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638585796059784</v>
+        <v>1.602062822210603</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.760295285229752</v>
@@ -16885,7 +16777,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.637207315122788</v>
+        <v>1.596988542985684</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.151847885101992</v>
@@ -16974,7 +16866,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.639484151399692</v>
+        <v>1.599987394297643</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.050200319313505</v>
@@ -17063,7 +16955,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627290062978779</v>
+        <v>1.581109776987498</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.104034695088282</v>
@@ -17152,7 +17044,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.62142983873301</v>
+        <v>1.574731712981364</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.977658251237063</v>
@@ -17241,7 +17133,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.632564556646089</v>
+        <v>1.582283670959124</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.176501607882452</v>
@@ -17330,7 +17222,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62944550056481</v>
+        <v>1.579020898665718</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.136556786810008</v>
@@ -17419,7 +17311,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.627433930449644</v>
+        <v>1.57819935556417</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.852984703528898</v>
@@ -17508,7 +17400,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628300960684042</v>
+        <v>1.577892453552914</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.90689136712904</v>
@@ -17597,7 +17489,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629552226822838</v>
+        <v>1.57196283804023</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.822294140720192</v>
@@ -17686,7 +17578,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625232947090078</v>
+        <v>1.569005734939075</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.790043898761791</v>
@@ -17775,7 +17667,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.617766342486167</v>
+        <v>1.554013725932213</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.789961654541039</v>
@@ -17864,7 +17756,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.621152409778672</v>
+        <v>1.559587795122134</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.598820781782772</v>
@@ -17953,7 +17845,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620676327680452</v>
+        <v>1.560763616292598</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.851745622576581</v>
@@ -18042,7 +17934,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626912243687091</v>
+        <v>1.566772159467066</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.869700859299215</v>
@@ -18131,7 +18023,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.602896473912648</v>
+        <v>1.53649871213717</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.137824054444698</v>
@@ -18220,7 +18112,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.571911598001945</v>
+        <v>1.51840817627691</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.242493081224292</v>
@@ -18309,7 +18201,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.546717098871596</v>
+        <v>1.48873844484657</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.221197739929957</v>
@@ -18398,7 +18290,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550004745184279</v>
+        <v>1.503920427832218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.274826785739535</v>
@@ -18487,7 +18379,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552606619236323</v>
+        <v>1.507773382587934</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.313731836511231</v>
@@ -18576,7 +18468,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545766268558629</v>
+        <v>1.501879717031607</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.319992592311432</v>
@@ -18665,7 +18557,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540839077555146</v>
+        <v>1.500485465110842</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.359951013334365</v>
@@ -18754,7 +18646,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535059972598699</v>
+        <v>1.489364187295904</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.400270305047662</v>
@@ -18843,7 +18735,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.539227420038503</v>
+        <v>1.488184603747765</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.414838486005185</v>
@@ -18932,7 +18824,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535461635459118</v>
+        <v>1.486400674987131</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.535977066001538</v>
@@ -19021,7 +18913,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.53574416503001</v>
+        <v>1.485910160433931</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.418991604192072</v>
@@ -19110,7 +19002,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538506628413717</v>
+        <v>1.494283208173403</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.535125994888694</v>
@@ -19199,7 +19091,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.539936033977438</v>
+        <v>1.490371562704485</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.296598634253304</v>
@@ -19288,7 +19180,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.524962686998231</v>
+        <v>1.482989711049564</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.545265223368775</v>
@@ -19377,7 +19269,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512990000845118</v>
+        <v>1.468756881358895</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.469349101698823</v>
@@ -19466,7 +19358,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.525730233846967</v>
+        <v>1.482637710561931</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.75671958429962</v>
@@ -19555,7 +19447,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.549206230646907</v>
+        <v>1.49507587265374</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.805757998994193</v>
@@ -19644,7 +19536,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.562210621164855</v>
+        <v>1.504957972684097</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.335502726718889</v>
@@ -19733,7 +19625,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.557590127666134</v>
+        <v>1.493280788281582</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.031706221124813</v>
@@ -19822,7 +19714,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.559256230697975</v>
+        <v>1.496269921213188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.207162092619305</v>
@@ -19911,7 +19803,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557206813940874</v>
+        <v>1.484984278878916</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.192737498220079</v>
@@ -20000,7 +19892,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544343753102147</v>
+        <v>1.47474268346899</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.313614018208809</v>
@@ -20089,7 +19981,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546731574170008</v>
+        <v>1.480835481919957</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.141547593148944</v>
@@ -20178,7 +20070,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.531717445182678</v>
+        <v>1.472448515237444</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.177265639020813</v>
@@ -20267,7 +20159,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.525233649597833</v>
+        <v>1.464322028329065</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.053930672438265</v>
@@ -20356,7 +20248,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.526922571670034</v>
+        <v>1.466024903970256</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.938689057847494</v>
@@ -20642,7 +20534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.663145240013743</v>
+        <v>1.62793988791826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.938966941159021</v>
@@ -20731,7 +20623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.680909107269478</v>
+        <v>1.640773516295816</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.839945691646703</v>
@@ -20820,7 +20712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.674251194757481</v>
+        <v>1.630729353647785</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.740519484527589</v>
@@ -20909,7 +20801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662394606168436</v>
+        <v>1.619130969902925</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.030264456071097</v>
@@ -20998,7 +20890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651238142727248</v>
+        <v>1.609469530847988</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.634441663851061</v>
@@ -21087,7 +20979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656737286506405</v>
+        <v>1.60897434443577</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45933527665138</v>
@@ -21176,7 +21068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.68726151147792</v>
+        <v>1.636107072994076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.463419659226629</v>
@@ -21265,7 +21157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.689308326362669</v>
+        <v>1.646082727820916</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.458702689194475</v>
@@ -21354,7 +21246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681248755306198</v>
+        <v>1.639679264433953</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.552485029717542</v>
@@ -21443,7 +21335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.677627445789718</v>
+        <v>1.638944163970931</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.243988444655814</v>
@@ -21532,7 +21424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666369582706188</v>
+        <v>1.624988516528861</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.306485028405212</v>
@@ -21621,7 +21513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.672395297483706</v>
+        <v>1.627501843930421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.346523336252641</v>
@@ -21710,7 +21602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.667900606758938</v>
+        <v>1.620435797991382</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.394857829417869</v>
@@ -21799,7 +21691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686530207565583</v>
+        <v>1.638617913170132</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.242053284564808</v>
@@ -21888,7 +21780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.676781857703521</v>
+        <v>1.630830664368305</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.291585560564789</v>
@@ -21977,7 +21869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671154261136476</v>
+        <v>1.625797671550081</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.379043282782685</v>
@@ -22066,7 +21958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668168005711343</v>
+        <v>1.625132711318237</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.093057665662234</v>
@@ -22155,7 +22047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656721170616074</v>
+        <v>1.611979368899992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.396620623577209</v>
@@ -22244,7 +22136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66631812051092</v>
+        <v>1.617400110611138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.755937133741813</v>
@@ -22333,7 +22225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686482791347545</v>
+        <v>1.63171663361938</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.939906115387347</v>
@@ -22422,7 +22314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685631470905806</v>
+        <v>1.637282393357486</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.919598031684619</v>
@@ -22511,7 +22403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.677695759444619</v>
+        <v>1.626707834362007</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.047570726168836</v>
@@ -22600,7 +22492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.672755234018101</v>
+        <v>1.618099597465575</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.011350482898819</v>
@@ -22689,7 +22581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667899246516122</v>
+        <v>1.611733998059212</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.127904356435452</v>
@@ -22778,7 +22670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.670203794279363</v>
+        <v>1.610514535046298</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.025961935556092</v>
@@ -22867,7 +22759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678865063812957</v>
+        <v>1.620352822589</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.168651836432932</v>
@@ -22956,7 +22848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682434191787532</v>
+        <v>1.626126641761758</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.033601409487938</v>
@@ -23045,7 +22937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.680080040393984</v>
+        <v>1.628813208673532</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.147055266108794</v>
@@ -23134,7 +23026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682960857783569</v>
+        <v>1.631506215886286</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.190658576581487</v>
@@ -23223,7 +23115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683907108884283</v>
+        <v>1.631107512146197</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.072087847353513</v>
@@ -23312,7 +23204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.681058968664366</v>
+        <v>1.629096676301869</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.972971529095349</v>
@@ -23401,7 +23293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678368930152892</v>
+        <v>1.624752067575475</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.911257287556435</v>
@@ -23490,7 +23382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.686843831230054</v>
+        <v>1.632057774651563</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.014377311500274</v>
@@ -23579,7 +23471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690868465611464</v>
+        <v>1.635689048512361</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.90548313832325</v>
@@ -23668,7 +23560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.696170418163852</v>
+        <v>1.641333942341888</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.008820840735185</v>
@@ -23757,7 +23649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67683183028092</v>
+        <v>1.615342392088603</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.466558871380902</v>
@@ -23846,7 +23738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.664518446246249</v>
+        <v>1.60711455689003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.558692117701613</v>
@@ -23935,7 +23827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.651492435314053</v>
+        <v>1.594670277010766</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.536387288241909</v>
@@ -24024,7 +23916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642146635288319</v>
+        <v>1.598673125364026</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.620825171143548</v>
@@ -24113,7 +24005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.645762836911801</v>
+        <v>1.608171468853067</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.572487827705921</v>
@@ -24202,7 +24094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633133503885868</v>
+        <v>1.594573269661973</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.644075432382519</v>
@@ -24291,7 +24183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.625810319970578</v>
+        <v>1.584590021237541</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.611332415392881</v>
@@ -24380,7 +24272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621048208735899</v>
+        <v>1.581300928671412</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.598245550011005</v>
@@ -24469,7 +24361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62113279364362</v>
+        <v>1.580135879852669</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.745550043588981</v>
@@ -24558,7 +24450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61311896469164</v>
+        <v>1.57911401994998</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.690858915801397</v>
@@ -24647,7 +24539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609992429164737</v>
+        <v>1.576902606174864</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.528118616285124</v>
@@ -24736,7 +24628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612381607455976</v>
+        <v>1.57881626517774</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.734206787335517</v>
@@ -24825,7 +24717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.610914833469157</v>
+        <v>1.574201960699036</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.513109375090963</v>
@@ -24914,7 +24806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.594110065210017</v>
+        <v>1.560933885640166</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.796547771652735</v>
@@ -25003,7 +24895,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581649551470186</v>
+        <v>1.548201784272131</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.65871838142967</v>
@@ -25092,7 +24984,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595672726094148</v>
+        <v>1.561322181701021</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.048744099136066</v>
@@ -25181,7 +25073,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.611571231136823</v>
+        <v>1.568821746585116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.073714873065511</v>
@@ -25270,7 +25162,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617103832421398</v>
+        <v>1.570724552536071</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.413655644614925</v>
@@ -25359,7 +25251,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.614211380004871</v>
+        <v>1.560534031085557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.288415428323265</v>
@@ -25448,7 +25340,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.609272707564616</v>
+        <v>1.552454015727019</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.460453920113528</v>
@@ -25537,7 +25429,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603973913991295</v>
+        <v>1.542600629772785</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.371557641648672</v>
@@ -25626,7 +25518,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.587079655560679</v>
+        <v>1.529084595181516</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.522956434426491</v>
@@ -25715,7 +25607,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.588009936050873</v>
+        <v>1.53150221367409</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.194772685708885</v>
@@ -25804,7 +25696,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.573405853880839</v>
+        <v>1.520226146305365</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.405809243729878</v>
@@ -25893,7 +25785,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.569749111872554</v>
+        <v>1.511831101378337</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.271367168558997</v>
@@ -25982,7 +25874,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.580615989803787</v>
+        <v>1.518325397165069</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.183094623610828</v>
@@ -26268,7 +26160,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.489821562914607</v>
+        <v>1.448120338909288</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.501089179428931</v>
@@ -26357,7 +26249,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502550158254834</v>
+        <v>1.453285508047531</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.293725386342802</v>
@@ -26446,7 +26338,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.527085892753742</v>
+        <v>1.470911223657226</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.177864958103742</v>
@@ -26535,7 +26427,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.561188970443032</v>
+        <v>1.496434609576109</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.585974581167657</v>
@@ -26624,7 +26516,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552187132503129</v>
+        <v>1.488242140026675</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.437366253102458</v>
@@ -26713,7 +26605,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562598948185922</v>
+        <v>1.504142359172062</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.290387806619357</v>
@@ -26802,7 +26694,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.587472077848663</v>
+        <v>1.521214910395608</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.985917398917277</v>
@@ -26891,7 +26783,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584303415014747</v>
+        <v>1.523408557590274</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.156323750560726</v>
@@ -26980,7 +26872,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582542378869438</v>
+        <v>1.524029612268862</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.201968525273467</v>
@@ -27069,7 +26961,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.58179896219246</v>
+        <v>1.530376827878609</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.983606260720103</v>
@@ -27158,7 +27050,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.583275746492885</v>
+        <v>1.530006687295339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.982004028500231</v>
@@ -27247,7 +27139,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590195284774083</v>
+        <v>1.531989552661376</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.184732120152442</v>
@@ -27336,7 +27228,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590680552242778</v>
+        <v>1.525573031404723</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.185394127298704</v>
@@ -27425,7 +27317,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.602034094540692</v>
+        <v>1.537166874690132</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.004830824786204</v>
@@ -27514,7 +27406,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602271048076629</v>
+        <v>1.534771852774674</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.263149790616275</v>
@@ -27603,7 +27495,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602259999472343</v>
+        <v>1.532750947304749</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.245174856335862</v>
@@ -27692,7 +27584,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595634758537567</v>
+        <v>1.531094512891416</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.053871810031525</v>
@@ -27781,7 +27673,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577718728110695</v>
+        <v>1.512007379714809</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.129826519228215</v>
@@ -27870,7 +27762,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584127719279762</v>
+        <v>1.511457926868053</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.513897609421095</v>
@@ -27959,7 +27851,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.604769064591513</v>
+        <v>1.525576669209527</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.790559540929232</v>
@@ -28048,7 +27940,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.601565957432511</v>
+        <v>1.52300619291285</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.573256023203489</v>
@@ -28137,7 +28029,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.606235356981784</v>
+        <v>1.523667737584082</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.039418689021269</v>
@@ -28226,7 +28118,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603103135658398</v>
+        <v>1.522166160150478</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.942342790452413</v>
@@ -28315,7 +28207,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593434995151386</v>
+        <v>1.506855563806337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.762650907763613</v>
@@ -28404,7 +28296,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587684568414454</v>
+        <v>1.498072010577448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.607405378305603</v>
@@ -28493,7 +28385,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59733876691139</v>
+        <v>1.508622746194503</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.73775193173176</v>
@@ -28582,7 +28474,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596445133534641</v>
+        <v>1.507640341410205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.738189539172046</v>
@@ -28671,7 +28563,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.589876168656724</v>
+        <v>1.503757196343326</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.749382008850139</v>
@@ -28760,7 +28652,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590862839142885</v>
+        <v>1.507015521330484</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.674801039066409</v>
@@ -28849,7 +28741,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580922530091842</v>
+        <v>1.505339968835528</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.78343293367768</v>
@@ -28938,7 +28830,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579963958494222</v>
+        <v>1.508043408218381</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.681560688648525</v>
@@ -29027,7 +28919,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.58713647555723</v>
+        <v>1.507918893950953</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.635288241172541</v>
@@ -29116,7 +29008,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589183101992811</v>
+        <v>1.516219863140438</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.503969553340032</v>
@@ -29205,7 +29097,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59455054873216</v>
+        <v>1.520097916498256</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.731049189721195</v>
@@ -29294,7 +29186,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594920144310609</v>
+        <v>1.524383151229923</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.738963537086318</v>
@@ -29383,7 +29275,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.576419401989036</v>
+        <v>1.497639722174299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.154046795832942</v>
@@ -29472,7 +29364,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.552431206189853</v>
+        <v>1.481855810020881</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.265817366387214</v>
@@ -29561,7 +29453,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539019424049132</v>
+        <v>1.469507698603144</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.205384881327902</v>
@@ -29650,7 +29542,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548350041286372</v>
+        <v>1.491339433255099</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.269087272446804</v>
@@ -29739,7 +29631,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556116841410056</v>
+        <v>1.499460965202654</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.263376932912996</v>
@@ -29828,7 +29720,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.554179648272677</v>
+        <v>1.501531802706053</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.278633097083675</v>
@@ -29917,7 +29809,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552704669578705</v>
+        <v>1.503279103210803</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.312724563626498</v>
@@ -30006,7 +29898,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555365174556422</v>
+        <v>1.508235761310952</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.370226354977817</v>
@@ -30095,7 +29987,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562979518270168</v>
+        <v>1.510521536081271</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.464219215474586</v>
@@ -30184,7 +30076,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561019189110072</v>
+        <v>1.507632353795413</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.538732869155716</v>
@@ -30273,7 +30165,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.559504425730519</v>
+        <v>1.50366702755925</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.412050353117653</v>
@@ -30362,7 +30254,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560261453354963</v>
+        <v>1.504943349449094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.505944384846359</v>
@@ -30451,7 +30343,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.559813323454043</v>
+        <v>1.500328914924188</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.279521739757576</v>
@@ -30540,7 +30432,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.538008042124885</v>
+        <v>1.48649238370858</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.454333329977186</v>
@@ -30629,7 +30521,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.429790233128824</v>
+        <v>1.393556521903343</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.674785904965268</v>
@@ -30718,7 +30610,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.405658356576274</v>
+        <v>1.38347861857882</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.675025069927629</v>
@@ -30807,7 +30699,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.418236049324721</v>
+        <v>1.393592098331371</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.680002808690323</v>
@@ -30896,7 +30788,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.431912026584983</v>
+        <v>1.401087857980575</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.651427448205911</v>
@@ -30985,7 +30877,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.424809424346588</v>
+        <v>1.391362648931407</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.688745422480112</v>
@@ -31074,7 +30966,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.428430984440137</v>
+        <v>1.393472164320516</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.702452194010163</v>
@@ -31163,7 +31055,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.422469448890032</v>
+        <v>1.381231944557311</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.706936526344327</v>
@@ -31252,7 +31144,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.412887646910123</v>
+        <v>1.370213576274051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.701300688843919</v>
@@ -31341,7 +31233,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.408739779149614</v>
+        <v>1.366770218742086</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.707636654096845</v>
@@ -31430,7 +31322,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.400004468431284</v>
+        <v>1.360403768672844</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.698261123636853</v>
@@ -31519,7 +31411,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.394897543539471</v>
+        <v>1.354514188922502</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.697228281041066</v>
@@ -31608,7 +31500,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.394966704449435</v>
+        <v>1.354919302302881</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.689460441623345</v>
@@ -31894,7 +31786,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.567642460834112</v>
+        <v>1.577987336242018</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.038214367808111</v>
@@ -31983,7 +31875,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.594083988842646</v>
+        <v>1.601657119644111</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.001980105817331</v>
@@ -32072,7 +31964,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599451008874466</v>
+        <v>1.601862085010779</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.736367066370293</v>
@@ -32161,7 +32053,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.606665706982085</v>
+        <v>1.609642437917217</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.184064664484214</v>
@@ -32250,7 +32142,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608872707620374</v>
+        <v>1.607560585413902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.911131718786619</v>
@@ -32339,7 +32231,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.628235107420062</v>
+        <v>1.629056721784947</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.29637473081024</v>
@@ -32428,7 +32320,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.632132005290757</v>
+        <v>1.636004416548122</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.063091165712236</v>
@@ -32517,7 +32409,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636101922539424</v>
+        <v>1.646894274755008</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.922511650124106</v>
@@ -32606,7 +32498,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.635362775061084</v>
+        <v>1.642792115720579</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.792369154718667</v>
@@ -32695,7 +32587,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64117744612424</v>
+        <v>1.645051785597967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.109501509171962</v>
@@ -32784,7 +32676,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.648054071107089</v>
+        <v>1.650385791982149</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.304180304714182</v>
@@ -32873,7 +32765,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656500154582669</v>
+        <v>1.658014789037342</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.170086752057267</v>
@@ -32962,7 +32854,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652354387930625</v>
+        <v>1.651916750049782</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.013557390811884</v>
@@ -33051,7 +32943,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.661661662626732</v>
+        <v>1.666529616955718</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.993233443046058</v>
@@ -33140,7 +33032,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.672515764929451</v>
+        <v>1.677175433080008</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.137448059099464</v>
@@ -33229,7 +33121,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.676847157382414</v>
+        <v>1.67945804147723</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.236250254118439</v>
@@ -33318,7 +33210,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.667821937724351</v>
+        <v>1.671807860377707</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.985496340606921</v>
@@ -33407,7 +33299,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.674190115962322</v>
+        <v>1.6782828431045</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.037852351790671</v>
@@ -33496,7 +33388,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689932622991267</v>
+        <v>1.68604090607354</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.414452217047911</v>
@@ -33585,7 +33477,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705822666629841</v>
+        <v>1.695400488772761</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.816138059108414</v>
@@ -33674,7 +33566,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.704120566024152</v>
+        <v>1.698155022137485</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.166906160674192</v>
@@ -33763,7 +33655,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70977734138792</v>
+        <v>1.700623912890288</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.12943534594387</v>
@@ -33852,7 +33744,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.711250995833694</v>
+        <v>1.701207849438624</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.742900254013332</v>
@@ -33941,7 +33833,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696059824271893</v>
+        <v>1.683845633626908</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.292113367687243</v>
@@ -34030,7 +33922,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.699064455933782</v>
+        <v>1.692748158412407</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.292485330451034</v>
@@ -34119,7 +34011,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.712164280645374</v>
+        <v>1.705912043971812</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.281920138762514</v>
@@ -34208,7 +34100,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.703063903071117</v>
+        <v>1.701653017785846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.34721253866948</v>
@@ -34297,7 +34189,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.693577656034727</v>
+        <v>1.690551175986811</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.239607734543877</v>
@@ -34386,7 +34278,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686831786963525</v>
+        <v>1.683141357178261</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.172461362056392</v>
@@ -34475,7 +34367,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.680871678403601</v>
+        <v>1.675520667276515</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.366306717564373</v>
@@ -34564,7 +34456,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680064566200921</v>
+        <v>1.676321381943365</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.37646758392066</v>
@@ -34653,7 +34545,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.675052915948982</v>
+        <v>1.668935160090114</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.368124877897926</v>
@@ -34742,7 +34634,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.668371177163668</v>
+        <v>1.664981006094471</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.004573420978047</v>
@@ -34831,7 +34723,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.659824429851257</v>
+        <v>1.659176639515643</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.37268837806515</v>
@@ -34920,7 +34812,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.652710730377958</v>
+        <v>1.657190308186914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.82739288248614</v>
@@ -35009,7 +34901,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.639762338289805</v>
+        <v>1.637637701434373</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.567990416030807</v>
@@ -35098,7 +34990,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622295429205298</v>
+        <v>1.623619942855581</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.689793833918302</v>
@@ -35187,7 +35079,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.621911957687015</v>
+        <v>1.616961639484497</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.532601141147836</v>
@@ -35276,7 +35168,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623757077305438</v>
+        <v>1.621363227544067</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.713491514463933</v>
@@ -35365,7 +35257,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588144026755427</v>
+        <v>1.588862008373482</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.757581010315505</v>
@@ -35454,7 +35346,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.56247123943629</v>
+        <v>1.56321326763265</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.639417146791391</v>
@@ -35543,7 +35435,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563177576463237</v>
+        <v>1.560066204513538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.690876801011326</v>
@@ -35632,7 +35524,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568827560783071</v>
+        <v>1.564267830462461</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.703625425533517</v>
@@ -35721,7 +35613,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569747338722904</v>
+        <v>1.560406013030633</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.757492404625269</v>
@@ -35810,7 +35702,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.566705155323442</v>
+        <v>1.55277278574038</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.722368779860884</v>
@@ -35899,7 +35791,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568105896956039</v>
+        <v>1.551770007800741</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.400070332080349</v>
@@ -35988,7 +35880,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573177404630776</v>
+        <v>1.558829674283617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.726573067702437</v>
@@ -36077,7 +35969,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577645863698846</v>
+        <v>1.55775148911424</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.469762329282063</v>
@@ -36166,7 +36058,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.569610135118366</v>
+        <v>1.55341466127919</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.852406812823684</v>
@@ -36255,7 +36147,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569054096481547</v>
+        <v>1.551041793433762</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.641634046595265</v>
@@ -36344,7 +36236,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.567118902769404</v>
+        <v>1.549930455039477</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.954853093314502</v>
@@ -36433,7 +36325,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.578452694101342</v>
+        <v>1.55484802016426</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.059886475006026</v>
@@ -36522,7 +36414,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.579877107799705</v>
+        <v>1.552413001427986</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.547673727391893</v>
@@ -36611,7 +36503,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580726394578138</v>
+        <v>1.550579089581428</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.874825820185161</v>
@@ -36700,7 +36592,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597722496333768</v>
+        <v>1.561915756647175</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.910141949765152</v>
@@ -36789,7 +36681,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.606069441216259</v>
+        <v>1.561022549264523</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.125152775176756</v>
@@ -36878,7 +36770,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573181441375372</v>
+        <v>1.536246090448241</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.912850141279112</v>
@@ -36967,7 +36859,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.576005773255529</v>
+        <v>1.537206413672457</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.984169198446646</v>
@@ -37056,7 +36948,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.568210557856164</v>
+        <v>1.534866638025454</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.788183477176807</v>
@@ -37145,7 +37037,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.56058914380634</v>
+        <v>1.527026804038934</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.835431013139086</v>
@@ -37234,7 +37126,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.560794170412636</v>
+        <v>1.523588449728635</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.814261463734873</v>
